--- a/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>RVPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,63 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,13 +838,15 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>300</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,28 +990,30 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -968,8 +1021,14 @@
       <c r="K17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,19 +1036,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -997,8 +1056,14 @@
       <c r="K18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,28 +1086,34 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>400</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
       </c>
       <c r="K20" s="3">
+        <v>400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>400</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,57 +1141,69 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>300</v>
       </c>
       <c r="J23" s="3">
         <v>300</v>
@@ -1126,37 +1211,49 @@
       <c r="K23" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,28 +1281,34 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>300</v>
       </c>
       <c r="J26" s="3">
         <v>300</v>
@@ -1213,28 +1316,34 @@
       <c r="K26" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>300</v>
       </c>
       <c r="J27" s="3">
         <v>300</v>
@@ -1242,8 +1351,14 @@
       <c r="K27" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,48 +1506,54 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-400</v>
       </c>
       <c r="J32" s="3">
         <v>-400</v>
       </c>
       <c r="K32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>300</v>
       </c>
       <c r="J33" s="3">
         <v>300</v>
@@ -1416,8 +1561,14 @@
       <c r="K33" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,28 +1596,34 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>300</v>
       </c>
       <c r="J35" s="3">
         <v>300</v>
@@ -1474,42 +1631,54 @@
       <c r="K35" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,95 +1841,119 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F47" s="3">
         <v>34400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>34200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>60900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>66300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>66000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>65700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>65200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,8 +1981,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>34700</v>
+      </c>
+      <c r="F54" s="3">
         <v>34500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>34500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>61000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>66500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>66300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>66000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>65600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,37 +2225,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,84 +2291,102 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2111,13 +2396,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>2200</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>2200</v>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,28 +2536,34 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2200</v>
       </c>
       <c r="J66" s="3">
         <v>2200</v>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M66" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
+        <v>200</v>
+      </c>
+      <c r="F72" s="3">
         <v>500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1300</v>
       </c>
       <c r="H72" s="3">
         <v>1200</v>
       </c>
       <c r="I72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K72" s="3">
         <v>900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F76" s="3">
         <v>30100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>30600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>57800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>64200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>64000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>63700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>63400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,62 +2936,74 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>300</v>
       </c>
       <c r="J81" s="3">
         <v>300</v>
@@ -2622,8 +3011,14 @@
       <c r="K81" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,28 +3236,34 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -2838,8 +3271,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>26800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>5700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,26 +3581,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-26600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-5500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3125,8 +3616,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>RVPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,62 +666,74 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +767,17 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +811,17 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +855,17 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,31 +879,34 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -875,8 +917,17 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +961,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +1005,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1049,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,43 +1070,55 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G17" s="3">
         <v>1300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,34 +1126,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-1800</v>
       </c>
       <c r="F18" s="3">
-        <v>-500</v>
+        <v>-1900</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-1300</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1176,11 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,45 +1188,54 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1147,23 +1258,32 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1173,66 +1293,84 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>300</v>
       </c>
       <c r="M23" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>300</v>
+      </c>
+      <c r="O23" s="3">
+        <v>300</v>
+      </c>
+      <c r="P23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
@@ -1243,17 +1381,26 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1434,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>300</v>
       </c>
       <c r="M26" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>300</v>
+      </c>
+      <c r="O26" s="3">
+        <v>300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>300</v>
       </c>
       <c r="M27" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>300</v>
+      </c>
+      <c r="O27" s="3">
+        <v>300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1566,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1610,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1654,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1698,17 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,69 +1716,87 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>300</v>
       </c>
       <c r="M33" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>300</v>
+      </c>
+      <c r="O33" s="3">
+        <v>300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1830,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>300</v>
       </c>
       <c r="M35" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>300</v>
+      </c>
+      <c r="O35" s="3">
+        <v>300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1947,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1965,55 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>35800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G41" s="3">
         <v>8800</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
-      </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +2047,17 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +2091,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,25 +2135,34 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -1877,83 +2174,110 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G46" s="3">
         <v>8800</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200</v>
-      </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
         <v>34600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>34400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>34200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>60900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>66300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>66000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>65700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>65200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2311,17 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2355,17 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2399,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,13 +2443,22 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
@@ -2106,8 +2466,8 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2118,17 +2478,26 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2531,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G54" s="3">
         <v>8800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>34700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>34500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>34500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>61000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>66500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>66300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>66000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>65600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2599,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2617,55 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,23 +2699,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2323,52 +2734,70 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2376,48 +2805,57 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>2000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>700</v>
       </c>
       <c r="E62" s="3">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="F62" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2200</v>
+        <v>1000</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>2200</v>
@@ -2437,8 +2875,17 @@
       <c r="M62" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2919,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2963,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +3007,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2200</v>
       </c>
       <c r="M66" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P66" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +3075,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +3113,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +3157,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3201,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3245,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-63100</v>
       </c>
       <c r="E72" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="H72" s="3">
         <v>200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>1000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>1200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>1300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>1200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3333,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3377,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3421,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G76" s="3">
         <v>7400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>29600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>30100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>30600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>57800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>64200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>64000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>63700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>63400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3509,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>300</v>
       </c>
       <c r="M81" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>300</v>
+      </c>
+      <c r="O81" s="3">
+        <v>300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3626,11 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3664,17 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3708,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3752,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3796,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3840,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3884,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-3200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3952,11 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3990,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +4034,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +4078,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>26800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>5700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +4146,11 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +4184,17 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +4228,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4272,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +4316,61 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>38400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-26600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-5500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +4404,57 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G102" s="3">
         <v>8800</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>RVPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,78 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -897,19 +910,19 @@
         <v>4</v>
       </c>
       <c r="G12" s="3">
+        <v>400</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,40 +1098,41 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1117,8 +1143,11 @@
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,31 +1155,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1161,8 +1190,11 @@
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1191,11 +1224,11 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1203,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>300</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
       </c>
       <c r="M20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N20" s="3">
         <v>400</v>
@@ -1221,10 +1254,13 @@
         <v>400</v>
       </c>
       <c r="P20" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,14 +1268,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1267,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1282,11 +1321,11 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1302,8 +1341,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1311,40 +1350,43 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>300</v>
       </c>
       <c r="N23" s="3">
         <v>300</v>
@@ -1355,8 +1397,11 @@
       <c r="P23" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1372,8 +1417,8 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
@@ -1390,8 +1435,8 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1399,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,40 +1491,43 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>300</v>
       </c>
       <c r="N26" s="3">
         <v>300</v>
@@ -1487,40 +1538,43 @@
       <c r="P26" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>300</v>
       </c>
       <c r="N27" s="3">
         <v>300</v>
@@ -1531,8 +1585,11 @@
       <c r="P27" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1719,11 +1788,11 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1731,16 +1800,16 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-300</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
       </c>
       <c r="M32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N32" s="3">
         <v>-400</v>
@@ -1749,42 +1818,45 @@
         <v>-400</v>
       </c>
       <c r="P32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>300</v>
       </c>
       <c r="N33" s="3">
         <v>300</v>
@@ -1795,8 +1867,11 @@
       <c r="P33" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,40 +1914,43 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>300</v>
       </c>
       <c r="N35" s="3">
         <v>300</v>
@@ -1883,57 +1961,63 @@
       <c r="P35" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E41" s="3">
         <v>33500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8800</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>300</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
       </c>
       <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2100,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,25 +2239,28 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2171,16 +2269,16 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2188,52 +2286,58 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E46" s="3">
         <v>33900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8800</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2249,35 +2353,38 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
         <v>34600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>34400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>34200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>60900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>66300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>66000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>65700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>65200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2320,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2466,11 +2585,11 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2487,8 +2606,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E54" s="3">
         <v>33900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>34500</v>
       </c>
       <c r="J54" s="3">
         <v>34500</v>
       </c>
       <c r="K54" s="3">
+        <v>34500</v>
+      </c>
+      <c r="L54" s="3">
         <v>61000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>65600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,41 +2749,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -2664,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2708,26 +2841,29 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2743,8 +2879,8 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -2752,41 +2888,44 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
@@ -2796,8 +2935,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2814,20 +2956,20 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2840,25 +2982,28 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2200</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>2200</v>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,40 +3170,43 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2200</v>
       </c>
       <c r="N66" s="3">
         <v>2200</v>
@@ -3060,8 +3217,11 @@
       <c r="P66" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-60900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-59300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-58300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E76" s="3">
         <v>32300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>34500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>30100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>30600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>64200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>64000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>63700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>63400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,89 +3706,95 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>300</v>
       </c>
       <c r="N81" s="3">
         <v>300</v>
@@ -3611,8 +3805,11 @@
       <c r="P81" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3999,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4104,35 +4333,38 @@
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>-200</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>26800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,38 +4567,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>31500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>38400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4369,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,34 +4661,37 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8800</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
@@ -4449,12 +4700,15 @@
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>RVPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,37 +908,38 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1400</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
       </c>
       <c r="H12" s="3">
+        <v>400</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,43 +1125,44 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1146,8 +1173,11 @@
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,34 +1185,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,17 +1255,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1239,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>300</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
       </c>
       <c r="N20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O20" s="3">
         <v>400</v>
@@ -1257,10 +1291,13 @@
         <v>400</v>
       </c>
       <c r="Q20" s="3">
+        <v>400</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,17 +1305,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,13 +1343,16 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1324,11 +1364,11 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1344,8 +1384,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1353,43 +1393,46 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>300</v>
       </c>
       <c r="O23" s="3">
         <v>300</v>
@@ -1400,8 +1443,11 @@
       <c r="Q23" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1420,8 +1466,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
@@ -1438,8 +1484,8 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,43 +1543,46 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>300</v>
       </c>
       <c r="O26" s="3">
         <v>300</v>
@@ -1541,43 +1593,46 @@
       <c r="Q26" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>300</v>
       </c>
       <c r="O27" s="3">
         <v>300</v>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,17 +1855,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1803,16 +1873,16 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-300</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
       </c>
       <c r="N32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O32" s="3">
         <v>-400</v>
@@ -1821,45 +1891,48 @@
         <v>-400</v>
       </c>
       <c r="Q32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>300</v>
       </c>
       <c r="O33" s="3">
         <v>300</v>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,43 +1993,46 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>300</v>
       </c>
       <c r="O35" s="3">
         <v>300</v>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E41" s="3">
         <v>29700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8800</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>300</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
+        <v>300</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,28 +2338,31 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2272,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2289,55 +2388,61 @@
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E46" s="3">
         <v>31400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>33900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>36500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8800</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2356,35 +2461,38 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
         <v>34600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>34400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>60900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>66300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>66000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>65700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>65200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2588,11 +2708,11 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2609,8 +2729,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E54" s="3">
         <v>31400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>34500</v>
       </c>
       <c r="K54" s="3">
         <v>34500</v>
       </c>
       <c r="L54" s="3">
+        <v>34500</v>
+      </c>
+      <c r="M54" s="3">
         <v>61000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>65600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,44 +2880,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,29 +2978,32 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2882,8 +3019,8 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -2891,44 +3028,47 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2959,20 +3102,20 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>2000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2985,28 +3128,31 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2200</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>2200</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,43 +3328,46 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2200</v>
       </c>
       <c r="O66" s="3">
         <v>2200</v>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-66800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-59300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-58300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E76" s="3">
         <v>28700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>34500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>30100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>57800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>64200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>64000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>63700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>63400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,95 +3898,101 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>300</v>
       </c>
       <c r="O81" s="3">
         <v>300</v>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4336,35 +4566,38 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>-200</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L94" s="3">
         <v>26800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5700</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,41 +4813,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>31500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>38400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,37 +4913,40 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
@@ -4703,12 +4955,15 @@
         <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>RVPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,40 +922,41 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>5800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
       </c>
       <c r="I12" s="3">
+        <v>400</v>
+      </c>
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,46 +1152,47 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
         <v>7500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1176,8 +1203,11 @@
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,37 +1215,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1226,8 +1256,11 @@
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,20 +1289,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1276,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>300</v>
       </c>
       <c r="N20" s="3">
         <v>300</v>
       </c>
       <c r="O20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P20" s="3">
         <v>400</v>
@@ -1294,31 +1328,34 @@
         <v>400</v>
       </c>
       <c r="R20" s="3">
+        <v>400</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,16 +1383,19 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1367,11 +1407,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1387,8 +1427,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1396,46 +1436,49 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>300</v>
       </c>
       <c r="P23" s="3">
         <v>300</v>
@@ -1446,8 +1489,11 @@
       <c r="R23" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1469,8 +1515,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1487,8 +1533,8 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,46 +1595,49 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>300</v>
       </c>
       <c r="P26" s="3">
         <v>300</v>
@@ -1596,46 +1648,49 @@
       <c r="R26" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>300</v>
       </c>
       <c r="P27" s="3">
         <v>300</v>
@@ -1646,8 +1701,11 @@
       <c r="R27" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,20 +1925,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1876,16 +1946,16 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-300</v>
       </c>
       <c r="N32" s="3">
         <v>-300</v>
       </c>
       <c r="O32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P32" s="3">
         <v>-400</v>
@@ -1894,48 +1964,51 @@
         <v>-400</v>
       </c>
       <c r="R32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>300</v>
       </c>
       <c r="P33" s="3">
         <v>300</v>
@@ -1946,8 +2019,11 @@
       <c r="R33" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,46 +2072,49 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>300</v>
       </c>
       <c r="P35" s="3">
         <v>300</v>
@@ -2046,63 +2125,69 @@
       <c r="R35" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E41" s="3">
         <v>23400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8800</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>300</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,31 +2437,34 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2374,16 +2473,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2391,58 +2490,64 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E46" s="3">
         <v>25300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>33900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>36500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8800</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2464,35 +2569,38 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>34600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>34200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>60900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>66300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>66000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>65700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>65200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2711,11 +2831,11 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2732,8 +2852,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E54" s="3">
         <v>25300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>31400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>34500</v>
       </c>
       <c r="L54" s="3">
         <v>34500</v>
       </c>
       <c r="M54" s="3">
+        <v>34500</v>
+      </c>
+      <c r="N54" s="3">
         <v>61000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>65600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,47 +3011,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,32 +3115,35 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3022,8 +3159,8 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3031,47 +3168,50 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3105,20 +3248,20 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>2000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3131,31 +3274,34 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2200</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>2200</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,46 +3486,49 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2200</v>
       </c>
       <c r="P66" s="3">
         <v>2200</v>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-74200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-66800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-63100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-59300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E76" s="3">
         <v>21400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>34500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>57800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>64200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>64000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>63700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>63400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,101 +4090,107 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>300</v>
       </c>
       <c r="P81" s="3">
         <v>300</v>
@@ -4006,8 +4201,11 @@
       <c r="R81" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4569,35 +4799,38 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>-200</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>26800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5700</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,35 +5071,35 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>31500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>38400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-26600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,40 +5165,43 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>30200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8800</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
@@ -4958,12 +5210,15 @@
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +800,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +856,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,43 +936,44 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
       </c>
       <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,49 +1179,50 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
         <v>5500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1206,8 +1233,11 @@
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,40 +1245,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1259,8 +1289,11 @@
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,23 +1323,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1313,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>300</v>
       </c>
       <c r="O20" s="3">
         <v>300</v>
       </c>
       <c r="P20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="3">
         <v>400</v>
@@ -1331,10 +1365,13 @@
         <v>400</v>
       </c>
       <c r="S20" s="3">
+        <v>400</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,21 +1381,21 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,8 +1423,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,8 +1437,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1410,11 +1450,11 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1430,8 +1470,8 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1439,49 +1479,52 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>300</v>
       </c>
       <c r="Q23" s="3">
         <v>300</v>
@@ -1492,8 +1535,11 @@
       <c r="S23" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1518,8 +1564,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1536,8 +1582,8 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,49 +1647,52 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>300</v>
       </c>
       <c r="Q26" s="3">
         <v>300</v>
@@ -1651,49 +1703,52 @@
       <c r="S26" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>300</v>
       </c>
       <c r="Q27" s="3">
         <v>300</v>
@@ -1704,8 +1759,11 @@
       <c r="S27" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,23 +1995,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1949,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-300</v>
       </c>
       <c r="O32" s="3">
         <v>-300</v>
       </c>
       <c r="P32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q32" s="3">
         <v>-400</v>
@@ -1967,51 +2037,54 @@
         <v>-400</v>
       </c>
       <c r="S32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>300</v>
       </c>
       <c r="Q33" s="3">
         <v>300</v>
@@ -2022,8 +2095,11 @@
       <c r="S33" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,49 +2151,52 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>300</v>
       </c>
       <c r="Q35" s="3">
         <v>300</v>
@@ -2128,66 +2207,72 @@
       <c r="S35" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E41" s="3">
         <v>19400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>300</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2424,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2480,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,34 +2536,37 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2476,16 +2575,16 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2493,137 +2592,146 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8800</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>34600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>34400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>34200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>60900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>66300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>66000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>65700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>65200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2652,8 +2760,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2834,11 +2954,11 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2855,8 +2975,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E54" s="3">
         <v>20600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>31400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>36500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>34500</v>
       </c>
       <c r="M54" s="3">
         <v>34500</v>
       </c>
       <c r="N54" s="3">
+        <v>34500</v>
+      </c>
+      <c r="O54" s="3">
         <v>61000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>66000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>65600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,50 +3142,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -3065,8 +3196,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,35 +3252,38 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3162,8 +3299,8 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3171,50 +3308,53 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
@@ -3224,8 +3364,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3251,20 +3394,20 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>2000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3277,8 +3420,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3286,25 +3432,25 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2200</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>2200</v>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,49 +3644,52 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2200</v>
       </c>
       <c r="Q66" s="3">
         <v>2200</v>
@@ -3542,8 +3700,11 @@
       <c r="S66" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-79500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-74200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-66800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-59300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E76" s="3">
         <v>16100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>34500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>57800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>64200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>64000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>63700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>63400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,107 +4282,113 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>300</v>
       </c>
       <c r="Q81" s="3">
         <v>300</v>
@@ -4204,8 +4399,11 @@
       <c r="S81" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4757,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4552,52 +4769,55 @@
         <v>-4000</v>
       </c>
       <c r="E89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
       </c>
       <c r="M94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N94" s="3">
         <v>26800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5700</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,47 +5305,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>31500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>38400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5115,8 +5361,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,43 +5417,46 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>30200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
@@ -5213,12 +5465,15 @@
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>RVPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -803,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,46 +949,47 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
       </c>
       <c r="K12" s="3">
+        <v>400</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,52 +1205,53 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1236,8 +1262,11 @@
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,43 +1274,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1292,8 +1321,11 @@
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,26 +1356,26 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1350,16 +1383,16 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>300</v>
       </c>
       <c r="P20" s="3">
         <v>300</v>
       </c>
       <c r="Q20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R20" s="3">
         <v>400</v>
@@ -1368,10 +1401,13 @@
         <v>400</v>
       </c>
       <c r="T20" s="3">
+        <v>400</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1384,21 +1420,21 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1426,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,8 +1479,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1453,11 +1492,11 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1473,8 +1512,8 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1482,52 +1521,55 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>300</v>
       </c>
       <c r="R23" s="3">
         <v>300</v>
@@ -1538,8 +1580,11 @@
       <c r="T23" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1567,8 +1612,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -1585,8 +1630,8 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1594,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,52 +1698,55 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>300</v>
       </c>
       <c r="R26" s="3">
         <v>300</v>
@@ -1706,52 +1757,55 @@
       <c r="T26" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>300</v>
       </c>
       <c r="R27" s="3">
         <v>300</v>
@@ -1762,8 +1816,11 @@
       <c r="T27" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1995,26 +2064,26 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2022,16 +2091,16 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-300</v>
       </c>
       <c r="P32" s="3">
         <v>-300</v>
       </c>
       <c r="Q32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="R32" s="3">
         <v>-400</v>
@@ -2040,54 +2109,57 @@
         <v>-400</v>
       </c>
       <c r="T32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>300</v>
       </c>
       <c r="R33" s="3">
         <v>300</v>
@@ -2098,8 +2170,11 @@
       <c r="T33" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,52 +2229,55 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>300</v>
       </c>
       <c r="R35" s="3">
         <v>300</v>
@@ -2210,69 +2288,75 @@
       <c r="T35" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E41" s="3">
         <v>23200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8800</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>300</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
       <c r="T41" s="3">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2483,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2539,37 +2634,40 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2578,16 +2676,16 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2595,64 +2693,70 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E46" s="3">
         <v>24000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>33900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8800</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2677,64 +2781,67 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
         <v>34600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>34400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>34200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>60900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>66300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>66000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>65700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>65200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2763,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,37 +3047,40 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2978,8 +3097,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2987,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E54" s="3">
         <v>24000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>34500</v>
       </c>
       <c r="N54" s="3">
         <v>34500</v>
       </c>
       <c r="O54" s="3">
+        <v>34500</v>
+      </c>
+      <c r="P54" s="3">
         <v>61000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>66300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>66000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>65600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,53 +3272,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
@@ -3199,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3255,38 +3388,41 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3302,8 +3438,8 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3311,53 +3447,56 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
@@ -3367,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3397,20 +3539,20 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>2000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3423,37 +3565,40 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2200</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>2200</v>
@@ -3479,8 +3624,11 @@
       <c r="T62" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,52 +3801,55 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2200</v>
       </c>
       <c r="R66" s="3">
         <v>2200</v>
@@ -3703,8 +3860,11 @@
       <c r="T66" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-83100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-79500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-74200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-66800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-60900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-59300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E76" s="3">
         <v>20400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>57800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>64200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>64000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>63700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>63400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,113 +4473,119 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>300</v>
       </c>
       <c r="R81" s="3">
         <v>300</v>
@@ -4402,8 +4596,11 @@
       <c r="T81" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4480,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4000</v>
+        <v>-4700</v>
       </c>
       <c r="E89" s="3">
         <v>-4000</v>
       </c>
       <c r="F89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-6300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4894,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5032,38 +5261,41 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
         <v>26800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,50 +5550,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>7800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>31500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>38400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5364,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,46 +5668,49 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E102" s="3">
         <v>3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>30200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8800</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
@@ -5468,12 +5719,15 @@
         <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RVPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>RVPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,101 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +817,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +882,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +947,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,52 +976,54 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F12" s="3">
         <v>6300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>5800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1102,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1167,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,58 +1258,60 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
@@ -1265,8 +1319,14 @@
       <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,49 +1334,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1324,8 +1384,14 @@
       <c r="U18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1413,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,58 +1424,64 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>400</v>
       </c>
       <c r="T20" s="3">
         <v>400</v>
       </c>
       <c r="U20" s="3">
+        <v>400</v>
+      </c>
+      <c r="V20" s="3">
+        <v>400</v>
+      </c>
+      <c r="W20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1423,24 +1497,24 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,16 +1539,22 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1482,11 +1562,11 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1495,14 +1575,14 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1515,67 +1595,73 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>300</v>
       </c>
       <c r="T23" s="3">
         <v>300</v>
@@ -1583,8 +1669,14 @@
       <c r="U23" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>300</v>
+      </c>
+      <c r="W23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1615,11 +1707,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1633,17 +1725,23 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,58 +1799,64 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>300</v>
       </c>
       <c r="T26" s="3">
         <v>300</v>
@@ -1760,58 +1864,64 @@
       <c r="U26" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>300</v>
+      </c>
+      <c r="W26" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>300</v>
       </c>
       <c r="T27" s="3">
         <v>300</v>
@@ -1819,8 +1929,14 @@
       <c r="U27" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>300</v>
+      </c>
+      <c r="W27" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2189,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,108 +2204,114 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-400</v>
       </c>
       <c r="T32" s="3">
         <v>-400</v>
       </c>
       <c r="U32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>300</v>
       </c>
       <c r="T33" s="3">
         <v>300</v>
@@ -2173,8 +2319,14 @@
       <c r="U33" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>300</v>
+      </c>
+      <c r="W33" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,58 +2384,64 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>300</v>
       </c>
       <c r="T35" s="3">
         <v>300</v>
@@ -2291,72 +2449,84 @@
       <c r="U35" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>300</v>
+      </c>
+      <c r="W35" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2573,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F41" s="3">
         <v>18500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>23200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>19400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>29700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>33500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>35800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8800</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2699,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2764,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2829,144 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F46" s="3">
         <v>18900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>24000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>20600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>25300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>31400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>33900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>36500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8800</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2784,38 +2994,44 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>34600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>34400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>34200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>60900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>66300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>66000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>65700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>65200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2840,14 +3056,14 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2873,8 +3089,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3154,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3284,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3076,8 +3316,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3085,8 +3325,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -3100,17 +3340,23 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3414,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F54" s="3">
         <v>18900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>24000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>20600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>25300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>31400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>33900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>36500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>34700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>34500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>34500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>61000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>66500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>66300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>66000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>65600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,90 +3533,98 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3391,44 +3659,50 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3441,76 +3715,88 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F60" s="3">
         <v>6000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4500</v>
       </c>
       <c r="G60" s="3">
         <v>3600</v>
       </c>
       <c r="H60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
       <c r="T60" s="3">
         <v>0</v>
       </c>
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3542,23 +3828,23 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>2000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3568,43 +3854,49 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2200</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>2200</v>
@@ -3627,8 +3919,14 @@
       <c r="U62" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W62" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,58 +4114,64 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2200</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2200</v>
       </c>
       <c r="T66" s="3">
         <v>2200</v>
@@ -3863,8 +4179,14 @@
       <c r="U66" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W66" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4464,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-97800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-91200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-83100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-79500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-74200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-66800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-63100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-60900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-59300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-58300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>1300</v>
       </c>
       <c r="R72" s="3">
         <v>1200</v>
       </c>
       <c r="S72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U72" s="3">
         <v>900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F76" s="3">
         <v>12300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>21400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>28700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>32300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>34500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>29600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>30100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>30600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>57800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>64200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>64000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>63700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>63400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>63100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,122 +4854,134 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>300</v>
       </c>
       <c r="T81" s="3">
         <v>300</v>
@@ -4599,8 +4989,14 @@
       <c r="U81" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>300</v>
+      </c>
+      <c r="W81" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5018,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +5079,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,58 +5404,64 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -5035,8 +5469,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5498,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5559,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5689,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5264,38 +5724,44 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>26800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>5700</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,56 +6039,62 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>7800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>31500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>38400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-26600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +6104,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6169,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>30200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>8800</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
